--- a/Data/prtest.xlsx
+++ b/Data/prtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isobel\Desktop\Analysis\Invert_Rocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D29A442-AFE3-4C84-BA34-30BB1D6E3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1751A6F6-6684-4816-B39A-267C4161CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="2325" windowWidth="25695" windowHeight="15435" xr2:uid="{A18A3204-D999-4288-ADB5-707499524EE7}"/>
+    <workbookView xWindow="1740" yWindow="6450" windowWidth="17805" windowHeight="13335" xr2:uid="{A18A3204-D999-4288-ADB5-707499524EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +475,13 @@
         <v>0.82704440000000001</v>
       </c>
       <c r="G2">
-        <v>1.6678949999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>1.2166250000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>2.2865505000000002</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -504,13 +504,13 @@
         <v>0.82704440000000001</v>
       </c>
       <c r="G3">
-        <v>1.6678949999999999</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1.2166250000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>2.2865505000000002</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -533,13 +533,13 @@
         <v>0.82704440000000001</v>
       </c>
       <c r="G4">
-        <v>1.6678949999999999</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1.2166250000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
-        <v>2.2865505000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -562,13 +562,13 @@
         <v>2.3802565000000002</v>
       </c>
       <c r="G5">
-        <v>8.3211423</v>
+        <v>6.2</v>
       </c>
       <c r="H5">
-        <v>6.4066890000000001</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>10.8076744</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
